--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_179.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_179.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,538 +488,558 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_138</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_79</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_163</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_151</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.5333333333333333</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
+          <t>[['F:maj', 'A#:maj', 'F:maj', 'A#:maj']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(13.42, 53.02)]</t>
+          <t>[['C:maj/G', 'F:maj', 'C:maj/G', 'F:maj/A']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(17.38, 61.66)]</t>
+          <t>[('0:01:51.920000', '0:01:55.660000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>[('0:01:57.540000', '0:02:02.700000')]</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_175</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_129</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_28</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_27</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.3506493506493507</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
+          <t>[['A:maj/E', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(15.94, 24.9)]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(6.8, 12.66)]</t>
+          <t>[('0:00:15.300000', '0:00:17.780000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>[('0:01:04.300000', '0:01:05.720000')]</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_162</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_244</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1902173913043478</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['D', 'A', 'A']]</t>
-        </is>
+          <t>isophonics_3</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>isophonics_277</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1380952380952381</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['Bb', 'F', 'F']]</t>
+          <t>[['D', 'G', 'G', 'D/3']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(32.351768, 40.095623)]</t>
+          <t>[['B', 'E', 'E', 'B']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(20.130022, 25.095075)]</t>
+          <t>[('0:01:16.889251', '0:01:21.614512')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:4MLBqAEzNN89o2M9h92Z26</t>
+          <t>[('0:00:14.402743', '0:00:19.871043')]</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>spotify:track:3BQHpFgAp4l80e1XslIjNI</t>
+          <t>spotify:track:68BTFws92cRztMS1oQ7Ewj</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:2RnPATK99oGOZygnD2GTO6</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_94</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_165</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.07334525939177103</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['C#:maj/F', 'G#:7', 'C#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_90</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>isophonics_112</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.45</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['C#:maj/G#', 'G#:7', 'C#:maj']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(41.32, 46.64)]</t>
+          <t>[['A', 'D/5', 'A', 'D/5']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(29.5, 31.64)]</t>
+          <t>[('0:02:34.760000', '0:02:40.980000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>[('0:00:00.421247', '0:00:06.206099')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_277</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_224</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.096875</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['A', 'E', 'B']]</t>
-        </is>
+          <t>schubert-winterreise_172</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_114</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['D', 'A', 'E']]</t>
+          <t>[['C:maj', 'B:(3,5,b9)/C', 'C:maj', 'F#:(3,b5,b9)/C', 'B:maj/C', 'C:maj', 'B:(3,5,b7,b9)', 'C:maj']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(35.080113, 43.578616)]</t>
+          <t>[['A#:maj', 'A:(3,5,b9)/A#', 'A#:maj', 'E:(3,b5,b9)/A#', 'A:maj/A#', 'A#:maj', 'A:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(92.74687, 96.589773)]</t>
+          <t>[('0:02:28.280000', '0:02:33.260000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:2RnPATK99oGOZygnD2GTO6</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:6dGnYIeXmHdcikdzNNDMm2</t>
-        </is>
-      </c>
+          <t>[('0:02:38.280000', '0:02:43.560000')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_176</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_177</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.07334525939177103</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['C:maj/G', 'G:7', 'C:maj']]</t>
-        </is>
+          <t>isophonics_138</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_22</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.2342342342342342</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['C:maj/E', 'G:7', 'C:maj']]</t>
+          <t>[['C:min', 'G:7', 'C:min', 'F:min', 'C:min']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(30.02, 32.12)]</t>
+          <t>[['A:min/E', 'E:7', 'A:min', 'D:min', 'A:min']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(38.9, 44.36)]</t>
+          <t>[('0:00:11.129160', '0:00:21.125350')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>[('0:00:51.360000', '0:01:03.980000')]</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>spotify:track:6tQvjqDIK9GXWIC6mejms8</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_173</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_0</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1036789297658863</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['G:min', 'D:7', 'G:min'], ['G:min', 'C:min/G', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_183</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>isophonics_217</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.3882352941176471</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'E:min/B', 'B:min']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(2.58, 5.02), (0.22, 3.44)]</t>
+          <t>[['G', 'C', 'G']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(74.1, 80.04), (25.48, 32.58)]</t>
+          <t>[('0:02:08.540000', '0:02:12.840000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:00:06.415079', '0:00:14.054444')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_0</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_94</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['B:min', 'B:7', 'E:maj/B', 'E:min/B', 'B:maj', 'B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B', 'F#:7/B', 'B:min', 'E:min/B', 'B:min', 'D:maj/A', 'E:min/G', 'D:maj/F#', 'A:7', 'D:maj', 'B:min', 'B:7/A', 'E:maj/G#', 'A:(3,5,b7,b9)/G', 'D:maj/F#', 'F#:(3,5,b7,b9)/E', 'G:(3,5)', 'B:min/F#', 'F#:7', 'G:(3,5)', 'B:min/F#', 'F#:7', 'B:min', 'B:7', 'E:maj', 'E:min', 'B:maj', 'B:min/B', 'F#:maj', 'B:min']]</t>
-        </is>
+          <t>isophonics_204</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_183</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.3576923076923077</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['A#:min', 'A#:7', 'D#:maj/A#', 'D#:min/A#', 'A#:maj', 'A#:min', 'F:maj', 'A#:min', 'A#:7', 'D#:min/A#', 'F:7/A#', 'A#:min', 'D#:min/A#', 'A#:min', 'C#:maj/G#', 'D#:min/F#', 'C#:maj/F', 'G#:7', 'C#:maj', 'A#:min', 'A#:7/G#', 'D#:maj/G', 'G#:(3,5,b7,b9)/F#', 'C#:maj/F', 'F:(3,5,b7,b9)/D#', 'F#:(3,5)', 'A#:min/F', 'F:7', 'F#:(3,5)', 'A#:min/F', 'F:7', 'A#:min', 'A#:7', 'D#:maj', 'D#:min', 'A#:maj', 'A#:min/A#', 'F:maj', 'A#:min']]</t>
+          <t>[['D', 'A', 'D'], ['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(0.78, 96.78)]</t>
+          <t>[['G:maj', 'D:maj/A', 'G:maj/B'], ['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(2.7, 109.5)]</t>
+          <t>[('0:00:32.874217', '0:00:37.657528'), ('0:00:33.698526', '0:00:40.885102')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:02:11.140000', '0:02:13.900000'), ('0:02:08.540000', '0:02:12.840000')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_58</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_128</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1230769230769231</v>
-      </c>
-      <c r="D10" t="inlineStr">
+          <t>schubert-winterreise_62</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>isophonics_138</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.1405405405405405</v>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>[['A:min', 'E:7/G#', 'A:min']]</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
-        </is>
-      </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(37.96, 44.8)]</t>
+          <t>[['C:min', 'G:7', 'C:min']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(46.52, 48.94)]</t>
+          <t>[('0:00:40.120000', '0:00:47.880000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
+          <t>[('0:00:01.129708', '0:00:06.125260')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
           <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:6tQvjqDIK9GXWIC6mejms8</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_94</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_62</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
+          <t>schubert-winterreise_129</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_185</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
         <v>0.1384615384615385</v>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['A#:min/F', 'F:7', 'A#:min']]</t>
-        </is>
-      </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
+          <t>[['F:min', 'C:7', 'F:min'], ['F:min', 'C:maj', 'F:min']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(84.62, 91.74)]</t>
+          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'F#:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(40.12, 47.88)]</t>
+          <t>[('0:00:08.200000', '0:00:12.660000'), ('0:00:00.780000', '0:00:05.260000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
+          <t>[('0:01:24', '0:01:30.840000'), ('0:00:13.740000', '0:00:22.560000')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
           <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_22</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_69</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['F:7', 'A#:maj/F', 'F:7', 'A#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_118</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_82</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.1001011122345804</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['G:7', 'C:maj/G', 'G:7', 'C:maj/G']]</t>
+          <t>[['E:7', 'A:min', 'A:min']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(106.96, 119.34)]</t>
+          <t>[['D:7', 'G:min', 'G:min']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(96.66, 106.3)]</t>
+          <t>[('0:00:14.200000', '0:00:18.800000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>[('0:00:03.900000', '0:00:07.720000')]</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_86</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>schubert-winterreise_157</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
           <t>schubert-winterreise_142</t>
         </is>
       </c>
-      <c r="C13" t="n">
-        <v>0.2687747035573123</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'G:maj', 'D:7/F#']]</t>
-        </is>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'F:maj/A', 'C:7']]</t>
+          <t>[['F:min', 'A#:min/F', 'F:min', 'C:7', 'F:min', 'F:min', 'G:min/A#', 'C:maj', 'C:maj/G', 'G:7', 'C:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:min', 'B:dim7', 'C:maj', 'F:maj/A', 'C:7', 'F:maj', 'F:maj/A', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(5.88, 12.78)]</t>
+          <t>[['F:min', 'A#:min/F', 'F:min', 'C:7', 'F:min', 'F:min', 'G:min/A#', 'C:maj', 'C:maj/G', 'G:7', 'C:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:min', 'B:dim7', 'C:maj', 'F:maj/A', 'C:7', 'F:maj', 'F:maj/A', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(17.9, 20.7)]</t>
+          <t>[('0:00:00.300000', '0:00:20.700000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>[('0:00:00.700000', '0:00:21.420000')]</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
         <is>
           <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
@@ -1023,180 +1048,142 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_92</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_162</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.2113636363636364</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_207</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_148</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'G:maj']]</t>
+          <t>[['F:maj', 'C:maj', 'F:7', 'A#:maj', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj'], ['A:7', 'D:min', 'C:7', 'F:maj', 'A:maj/C#', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(24.631133, 29.751133)]</t>
+          <t>[['G:maj', 'D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj'], ['B:7', 'E:min', 'D:7', 'G:maj', 'B:maj/D#', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(10.2, 17.38)]</t>
+          <t>[('0:00:00.220000', '0:00:20.820000'), ('0:00:55.840000', '0:01:17.800000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:7HTH1ppjkkOe7RLoBDKXYJ</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>[('0:00:00.260000', '0:00:24.940000'), ('0:01:05.060000', '0:01:28.500000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_261</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1168269230769231</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['C:maj/E', 'G:maj/D', 'A:min7/C'], ['G:maj', 'C:maj/G', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_112</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_26</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['C', 'G', 'A:min7'], ['G/3', 'C', 'G']]</t>
+          <t>[['D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(64.22, 66.98), (16.82, 23.18)]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(14.565283, 18.936988), (13.079206, 17.500916)]</t>
+          <t>[('0:01:52.240000', '0:01:57.700000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:01:59.320000', '0:02:04.320000')]</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>spotify:track:2B4Y9u4ERAFiMo13XPJyGP</t>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_20</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1230769230769231</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_164</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_169</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(39.04, 46.1)]</t>
+          <t>[['G:min', 'C:min', 'G:min', 'D:7', 'G:min', 'A#:maj/D', 'D#:maj', 'F:7', 'A#:maj', 'G:min/D', 'D:7', 'G:min', 'G:min/D', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(43.18, 45.1)]</t>
+          <t>[('0:00:14.520000', '0:00:59.640000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>[('0:00:14.520000', '0:00:59.040000')]</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_22</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_205</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1641025641025641</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(20.58, 32.5)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(41.3, 43.48)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
           <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
     </row>
